--- a/SonarLysaFX/src/resources/Suivi_Quality_Gate.xlsx
+++ b/SonarLysaFX/src/resources/Suivi_Quality_Gate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev\git\Redmine\SonarLysaFX\src\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="22530" windowHeight="11280" activeTab="4"/>
   </bookViews>
@@ -17,12 +22,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anomalies closes'!$A$1:$O$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="619">
   <si>
     <t>Edition</t>
   </si>
@@ -1873,6 +1877,12 @@
   </si>
   <si>
     <t>Lot_BF0408_00</t>
+  </si>
+  <si>
+    <t>Date détection</t>
+  </si>
+  <si>
+    <t>Matière</t>
   </si>
 </sst>
 </file>
@@ -4826,49 +4836,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -4885,12 +4895,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4932,7 +4945,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4967,7 +4980,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5182,7 +5195,7 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -6986,7 +6999,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="86" t="s">
         <v>198</v>
       </c>
@@ -7413,7 +7426,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="301" t="s">
         <v>198</v>
       </c>
@@ -7462,7 +7475,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="304" t="s">
         <v>198</v>
       </c>
@@ -7820,7 +7833,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -8020,7 +8033,7 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -8738,7 +8751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -8766,13 +8779,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
@@ -8785,15 +8798,16 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="100.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="100.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="221" t="s">
         <v>139</v>
       </c>
@@ -8827,26 +8841,32 @@
       <c r="K1" s="231" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="232" t="s">
+      <c r="L1" s="237" t="s">
+        <v>617</v>
+      </c>
+      <c r="M1" s="232" t="s">
         <v>597</v>
       </c>
-      <c r="M1" s="233" t="s">
+      <c r="N1" s="233" t="s">
         <v>494</v>
       </c>
-      <c r="N1" s="234" t="s">
+      <c r="O1" s="234" t="s">
         <v>599</v>
       </c>
-      <c r="O1" s="235" t="s">
+      <c r="P1" s="235" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="236" t="s">
+      <c r="Q1" s="236" t="s">
         <v>496</v>
       </c>
-      <c r="Q1" s="237" t="s">
+      <c r="R1" s="237" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="237" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="238" t="s">
         <v>148</v>
       </c>
@@ -8880,24 +8900,25 @@
       <c r="K2" s="239">
         <v>298842</v>
       </c>
-      <c r="L2" s="240"/>
-      <c r="M2" s="238" t="s">
+      <c r="L2" s="239"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="240">
+      <c r="O2" s="240">
         <v>43158</v>
       </c>
-      <c r="O2" s="238" t="s">
+      <c r="P2" s="238" t="s">
         <v>552</v>
       </c>
-      <c r="P2" s="239" t="s">
+      <c r="Q2" s="239" t="s">
         <v>536</v>
       </c>
-      <c r="Q2" s="239" t="s">
+      <c r="R2" s="239" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="244" t="s">
         <v>153</v>
       </c>
@@ -8931,24 +8952,25 @@
       <c r="K3" s="245">
         <v>292733</v>
       </c>
-      <c r="L3" s="246"/>
-      <c r="M3" s="244" t="s">
+      <c r="L3" s="245"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="246">
+      <c r="O3" s="246">
         <v>43165</v>
       </c>
-      <c r="O3" s="244" t="s">
+      <c r="P3" s="244" t="s">
         <v>601</v>
       </c>
-      <c r="P3" s="245" t="s">
-        <v>513</v>
-      </c>
       <c r="Q3" s="245" t="s">
+        <v>513</v>
+      </c>
+      <c r="R3" s="245" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="247" t="s">
         <v>153</v>
       </c>
@@ -8982,22 +9004,23 @@
       <c r="K4" s="248">
         <v>292733</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="247" t="s">
+      <c r="L4" s="248"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="249"/>
-      <c r="O4" s="247" t="s">
+      <c r="O4" s="249"/>
+      <c r="P4" s="247" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="248" t="s">
-        <v>513</v>
-      </c>
       <c r="Q4" s="248" t="s">
+        <v>513</v>
+      </c>
+      <c r="R4" s="248" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="250" t="s">
         <v>153</v>
       </c>
@@ -9031,24 +9054,25 @@
       <c r="K5" s="251">
         <v>294600</v>
       </c>
-      <c r="L5" s="252"/>
-      <c r="M5" s="250" t="s">
+      <c r="L5" s="251"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="250" t="s">
         <v>152</v>
       </c>
-      <c r="N5" s="252">
+      <c r="O5" s="252">
         <v>43165</v>
       </c>
-      <c r="O5" s="250" t="s">
+      <c r="P5" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="251" t="s">
-        <v>513</v>
-      </c>
       <c r="Q5" s="251" t="s">
+        <v>513</v>
+      </c>
+      <c r="R5" s="251" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="253" t="s">
         <v>153</v>
       </c>
@@ -9082,24 +9106,25 @@
       <c r="K6" s="254">
         <v>285917</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="253" t="s">
+      <c r="L6" s="254"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="253" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="255">
+      <c r="O6" s="255">
         <v>43165</v>
       </c>
-      <c r="O6" s="253" t="s">
+      <c r="P6" s="253" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="254" t="s">
-        <v>513</v>
-      </c>
       <c r="Q6" s="254" t="s">
+        <v>513</v>
+      </c>
+      <c r="R6" s="254" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="256" t="s">
         <v>153</v>
       </c>
@@ -9133,22 +9158,23 @@
       <c r="K7" s="257">
         <v>294557</v>
       </c>
-      <c r="L7" s="258"/>
-      <c r="M7" s="256" t="s">
+      <c r="L7" s="257"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="258"/>
-      <c r="O7" s="256" t="s">
+      <c r="O7" s="258"/>
+      <c r="P7" s="256" t="s">
         <v>157</v>
       </c>
-      <c r="P7" s="257" t="s">
-        <v>513</v>
-      </c>
       <c r="Q7" s="257" t="s">
+        <v>513</v>
+      </c>
+      <c r="R7" s="257" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="259" t="s">
         <v>153</v>
       </c>
@@ -9182,24 +9208,25 @@
       <c r="K8" s="260">
         <v>285919</v>
       </c>
-      <c r="L8" s="261"/>
-      <c r="M8" s="259" t="s">
+      <c r="L8" s="260"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="259" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="261">
+      <c r="O8" s="261">
         <v>43165</v>
       </c>
-      <c r="O8" s="259" t="s">
+      <c r="P8" s="259" t="s">
         <v>323</v>
       </c>
-      <c r="P8" s="260" t="s">
-        <v>513</v>
-      </c>
       <c r="Q8" s="260" t="s">
+        <v>513</v>
+      </c>
+      <c r="R8" s="260" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="262" t="s">
         <v>153</v>
       </c>
@@ -9233,22 +9260,23 @@
       <c r="K9" s="263">
         <v>292305</v>
       </c>
-      <c r="L9" s="264"/>
-      <c r="M9" s="262" t="s">
+      <c r="L9" s="263"/>
+      <c r="M9" s="264"/>
+      <c r="N9" s="262" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="264"/>
-      <c r="O9" s="262" t="s">
+      <c r="O9" s="264"/>
+      <c r="P9" s="262" t="s">
         <v>157</v>
       </c>
-      <c r="P9" s="263" t="s">
-        <v>513</v>
-      </c>
       <c r="Q9" s="263" t="s">
+        <v>513</v>
+      </c>
+      <c r="R9" s="263" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="265" t="s">
         <v>590</v>
       </c>
@@ -9282,22 +9310,23 @@
       <c r="K10" s="266">
         <v>262607</v>
       </c>
-      <c r="L10" s="267"/>
-      <c r="M10" s="265" t="s">
+      <c r="L10" s="266"/>
+      <c r="M10" s="267"/>
+      <c r="N10" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="N10" s="267"/>
-      <c r="O10" s="265" t="s">
+      <c r="O10" s="267"/>
+      <c r="P10" s="265" t="s">
         <v>553</v>
       </c>
-      <c r="P10" s="266" t="s">
+      <c r="Q10" s="266" t="s">
         <v>536</v>
       </c>
-      <c r="Q10" s="266" t="s">
+      <c r="R10" s="266" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="268" t="s">
         <v>174</v>
       </c>
@@ -9331,24 +9360,25 @@
       <c r="K11" s="269">
         <v>298838</v>
       </c>
-      <c r="L11" s="270"/>
-      <c r="M11" s="268" t="s">
+      <c r="L11" s="269"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="268" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="270">
+      <c r="O11" s="270">
         <v>43165</v>
       </c>
-      <c r="O11" s="268" t="s">
+      <c r="P11" s="268" t="s">
         <v>602</v>
       </c>
-      <c r="P11" s="269" t="s">
+      <c r="Q11" s="269" t="s">
         <v>536</v>
       </c>
-      <c r="Q11" s="269" t="s">
+      <c r="R11" s="269" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="271" t="s">
         <v>198</v>
       </c>
@@ -9382,22 +9412,23 @@
       <c r="K12" s="272">
         <v>285884</v>
       </c>
-      <c r="L12" s="273"/>
-      <c r="M12" s="271" t="s">
+      <c r="L12" s="272"/>
+      <c r="M12" s="273"/>
+      <c r="N12" s="271" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="273"/>
-      <c r="O12" s="271" t="s">
+      <c r="O12" s="273"/>
+      <c r="P12" s="271" t="s">
         <v>197</v>
       </c>
-      <c r="P12" s="272" t="s">
-        <v>513</v>
-      </c>
       <c r="Q12" s="272" t="s">
+        <v>513</v>
+      </c>
+      <c r="R12" s="272" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="274" t="s">
         <v>198</v>
       </c>
@@ -9431,22 +9462,23 @@
       <c r="K13" s="275">
         <v>285896</v>
       </c>
-      <c r="L13" s="276"/>
-      <c r="M13" s="274" t="s">
+      <c r="L13" s="275"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="274" t="s">
         <v>152</v>
       </c>
-      <c r="N13" s="276"/>
-      <c r="O13" s="274" t="s">
+      <c r="O13" s="276"/>
+      <c r="P13" s="274" t="s">
         <v>325</v>
       </c>
-      <c r="P13" s="275" t="s">
-        <v>513</v>
-      </c>
       <c r="Q13" s="275" t="s">
+        <v>513</v>
+      </c>
+      <c r="R13" s="275" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="277" t="s">
         <v>198</v>
       </c>
@@ -9480,22 +9512,23 @@
       <c r="K14" s="278">
         <v>262615</v>
       </c>
-      <c r="L14" s="279"/>
-      <c r="M14" s="277" t="s">
+      <c r="L14" s="278"/>
+      <c r="M14" s="279"/>
+      <c r="N14" s="277" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="279"/>
-      <c r="O14" s="277" t="s">
+      <c r="O14" s="279"/>
+      <c r="P14" s="277" t="s">
         <v>210</v>
       </c>
-      <c r="P14" s="278" t="s">
-        <v>513</v>
-      </c>
       <c r="Q14" s="278" t="s">
+        <v>513</v>
+      </c>
+      <c r="R14" s="278" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="286" t="s">
         <v>198</v>
       </c>
@@ -9527,24 +9560,25 @@
       <c r="K15" s="287">
         <v>294426</v>
       </c>
-      <c r="L15" s="288"/>
-      <c r="M15" s="286" t="s">
+      <c r="L15" s="287"/>
+      <c r="M15" s="288"/>
+      <c r="N15" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="288">
+      <c r="O15" s="288">
         <v>43165</v>
       </c>
-      <c r="O15" s="286" t="s">
+      <c r="P15" s="286" t="s">
         <v>605</v>
       </c>
-      <c r="P15" s="287" t="s">
-        <v>513</v>
-      </c>
       <c r="Q15" s="287" t="s">
+        <v>513</v>
+      </c>
+      <c r="R15" s="287" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="292" t="s">
         <v>198</v>
       </c>
@@ -9578,22 +9612,23 @@
       <c r="K16" s="293">
         <v>294408</v>
       </c>
-      <c r="L16" s="294"/>
-      <c r="M16" s="292" t="s">
+      <c r="L16" s="293"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="N16" s="294"/>
-      <c r="O16" s="292" t="s">
+      <c r="O16" s="294"/>
+      <c r="P16" s="292" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="293" t="s">
-        <v>513</v>
-      </c>
       <c r="Q16" s="293" t="s">
+        <v>513</v>
+      </c>
+      <c r="R16" s="293" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="295" t="s">
         <v>198</v>
       </c>
@@ -9625,24 +9660,25 @@
       <c r="K17" s="296">
         <v>294573</v>
       </c>
-      <c r="L17" s="297"/>
-      <c r="M17" s="295" t="s">
+      <c r="L17" s="296"/>
+      <c r="M17" s="297"/>
+      <c r="N17" s="295" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="297">
+      <c r="O17" s="297">
         <v>43165</v>
       </c>
-      <c r="O17" s="295" t="s">
+      <c r="P17" s="295" t="s">
         <v>221</v>
       </c>
-      <c r="P17" s="296" t="s">
-        <v>513</v>
-      </c>
       <c r="Q17" s="296" t="s">
+        <v>513</v>
+      </c>
+      <c r="R17" s="296" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="298" t="s">
         <v>198</v>
       </c>
@@ -9676,22 +9712,23 @@
       <c r="K18" s="299">
         <v>288251</v>
       </c>
-      <c r="L18" s="300"/>
-      <c r="M18" s="298" t="s">
+      <c r="L18" s="299"/>
+      <c r="M18" s="300"/>
+      <c r="N18" s="298" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="300"/>
-      <c r="O18" s="298" t="s">
+      <c r="O18" s="300"/>
+      <c r="P18" s="298" t="s">
         <v>329</v>
       </c>
-      <c r="P18" s="299" t="s">
+      <c r="Q18" s="299" t="s">
         <v>536</v>
       </c>
-      <c r="Q18" s="299" t="s">
+      <c r="R18" s="299" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="307" t="s">
         <v>198</v>
       </c>
@@ -9725,24 +9762,25 @@
       <c r="K19" s="308">
         <v>294063</v>
       </c>
-      <c r="L19" s="309"/>
-      <c r="M19" s="307" t="s">
+      <c r="L19" s="308"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="307" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="309">
+      <c r="O19" s="309">
         <v>43165</v>
       </c>
-      <c r="O19" s="307" t="s">
+      <c r="P19" s="307" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="308" t="s">
+      <c r="Q19" s="308" t="s">
         <v>536</v>
       </c>
-      <c r="Q19" s="308" t="s">
+      <c r="R19" s="308" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="310" t="s">
         <v>590</v>
       </c>
@@ -9774,22 +9812,23 @@
       <c r="K20" s="311">
         <v>288150</v>
       </c>
-      <c r="L20" s="312"/>
-      <c r="M20" s="310" t="s">
+      <c r="L20" s="311"/>
+      <c r="M20" s="312"/>
+      <c r="N20" s="310" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="312"/>
-      <c r="O20" s="310" t="s">
+      <c r="O20" s="312"/>
+      <c r="P20" s="310" t="s">
         <v>197</v>
       </c>
-      <c r="P20" s="311" t="s">
-        <v>513</v>
-      </c>
       <c r="Q20" s="311" t="s">
+        <v>513</v>
+      </c>
+      <c r="R20" s="311" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="322" t="s">
         <v>253</v>
       </c>
@@ -9823,24 +9862,25 @@
       <c r="K21" s="323">
         <v>292694</v>
       </c>
-      <c r="L21" s="324"/>
-      <c r="M21" s="322" t="s">
+      <c r="L21" s="323"/>
+      <c r="M21" s="324"/>
+      <c r="N21" s="322" t="s">
         <v>224</v>
       </c>
-      <c r="N21" s="324">
+      <c r="O21" s="324">
         <v>43165</v>
       </c>
-      <c r="O21" s="322" t="s">
+      <c r="P21" s="322" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="323" t="s">
-        <v>513</v>
-      </c>
       <c r="Q21" s="323" t="s">
+        <v>513</v>
+      </c>
+      <c r="R21" s="323" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="325" t="s">
         <v>253</v>
       </c>
@@ -9874,22 +9914,23 @@
       <c r="K22" s="326">
         <v>294594</v>
       </c>
-      <c r="L22" s="327"/>
-      <c r="M22" s="325" t="s">
+      <c r="L22" s="326"/>
+      <c r="M22" s="327"/>
+      <c r="N22" s="325" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="327"/>
-      <c r="O22" s="325" t="s">
+      <c r="O22" s="327"/>
+      <c r="P22" s="325" t="s">
         <v>258</v>
       </c>
-      <c r="P22" s="326" t="s">
-        <v>513</v>
-      </c>
       <c r="Q22" s="326" t="s">
+        <v>513</v>
+      </c>
+      <c r="R22" s="326" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="328" t="s">
         <v>513</v>
       </c>
@@ -9923,22 +9964,23 @@
       <c r="K23" s="329">
         <v>294568</v>
       </c>
-      <c r="L23" s="330"/>
-      <c r="M23" s="328" t="s">
+      <c r="L23" s="329"/>
+      <c r="M23" s="330"/>
+      <c r="N23" s="328" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="330"/>
-      <c r="O23" s="328" t="s">
+      <c r="O23" s="330"/>
+      <c r="P23" s="328" t="s">
         <v>263</v>
       </c>
-      <c r="P23" s="329" t="s">
-        <v>513</v>
-      </c>
       <c r="Q23" s="329" t="s">
+        <v>513</v>
+      </c>
+      <c r="R23" s="329" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="331" t="s">
         <v>513</v>
       </c>
@@ -9972,24 +10014,25 @@
       <c r="K24" s="332">
         <v>294591</v>
       </c>
-      <c r="L24" s="333"/>
-      <c r="M24" s="331" t="s">
+      <c r="L24" s="332"/>
+      <c r="M24" s="333"/>
+      <c r="N24" s="331" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="333">
+      <c r="O24" s="333">
         <v>43165</v>
       </c>
-      <c r="O24" s="331" t="s">
+      <c r="P24" s="331" t="s">
         <v>263</v>
       </c>
-      <c r="P24" s="332" t="s">
-        <v>513</v>
-      </c>
       <c r="Q24" s="332" t="s">
+        <v>513</v>
+      </c>
+      <c r="R24" s="332" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="337" t="s">
         <v>513</v>
       </c>
@@ -10021,22 +10064,23 @@
       <c r="K25" s="338">
         <v>301710</v>
       </c>
-      <c r="L25" s="339"/>
-      <c r="M25" s="337" t="s">
+      <c r="L25" s="338"/>
+      <c r="M25" s="339"/>
+      <c r="N25" s="337" t="s">
         <v>331</v>
       </c>
-      <c r="N25" s="339"/>
-      <c r="O25" s="337" t="s">
-        <v>513</v>
-      </c>
-      <c r="P25" s="338" t="s">
+      <c r="O25" s="339"/>
+      <c r="P25" s="337" t="s">
         <v>513</v>
       </c>
       <c r="Q25" s="338" t="s">
+        <v>513</v>
+      </c>
+      <c r="R25" s="338" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="340" t="s">
         <v>513</v>
       </c>
@@ -10070,24 +10114,25 @@
       <c r="K26" s="341">
         <v>301717</v>
       </c>
-      <c r="L26" s="342"/>
-      <c r="M26" s="340" t="s">
-        <v>513</v>
-      </c>
-      <c r="N26" s="342">
+      <c r="L26" s="341"/>
+      <c r="M26" s="342"/>
+      <c r="N26" s="340" t="s">
+        <v>513</v>
+      </c>
+      <c r="O26" s="342">
         <v>43165</v>
       </c>
-      <c r="O26" s="340" t="s">
+      <c r="P26" s="340" t="s">
         <v>332</v>
       </c>
-      <c r="P26" s="341" t="s">
-        <v>513</v>
-      </c>
       <c r="Q26" s="341" t="s">
+        <v>513</v>
+      </c>
+      <c r="R26" s="341" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="343" t="s">
         <v>198</v>
       </c>
@@ -10121,22 +10166,23 @@
       <c r="K27" s="344">
         <v>301750</v>
       </c>
-      <c r="L27" s="345"/>
-      <c r="M27" s="343" t="s">
-        <v>513</v>
-      </c>
-      <c r="N27" s="345"/>
-      <c r="O27" s="343" t="s">
+      <c r="L27" s="344"/>
+      <c r="M27" s="345"/>
+      <c r="N27" s="343" t="s">
+        <v>513</v>
+      </c>
+      <c r="O27" s="345"/>
+      <c r="P27" s="343" t="s">
         <v>333</v>
       </c>
-      <c r="P27" s="344" t="s">
-        <v>513</v>
-      </c>
       <c r="Q27" s="344" t="s">
+        <v>513</v>
+      </c>
+      <c r="R27" s="344" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="346" t="s">
         <v>513</v>
       </c>
@@ -10168,22 +10214,23 @@
         <v>318</v>
       </c>
       <c r="K28" s="347"/>
-      <c r="L28" s="348"/>
-      <c r="M28" s="346" t="s">
-        <v>513</v>
-      </c>
-      <c r="N28" s="348"/>
-      <c r="O28" s="346" t="s">
+      <c r="L28" s="347"/>
+      <c r="M28" s="348"/>
+      <c r="N28" s="346" t="s">
+        <v>513</v>
+      </c>
+      <c r="O28" s="348"/>
+      <c r="P28" s="346" t="s">
         <v>273</v>
       </c>
-      <c r="P28" s="347" t="s">
-        <v>513</v>
-      </c>
       <c r="Q28" s="347" t="s">
+        <v>513</v>
+      </c>
+      <c r="R28" s="347" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="349" t="s">
         <v>590</v>
       </c>
@@ -10217,22 +10264,23 @@
       <c r="K29" s="350">
         <v>301756</v>
       </c>
-      <c r="L29" s="351"/>
-      <c r="M29" s="349" t="s">
+      <c r="L29" s="350"/>
+      <c r="M29" s="351"/>
+      <c r="N29" s="349" t="s">
         <v>152</v>
       </c>
-      <c r="N29" s="351"/>
-      <c r="O29" s="349" t="s">
+      <c r="O29" s="351"/>
+      <c r="P29" s="349" t="s">
         <v>610</v>
       </c>
-      <c r="P29" s="350" t="s">
-        <v>513</v>
-      </c>
       <c r="Q29" s="350" t="s">
+        <v>513</v>
+      </c>
+      <c r="R29" s="350" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="352" t="s">
         <v>513</v>
       </c>
@@ -10264,22 +10312,23 @@
         <v>318</v>
       </c>
       <c r="K30" s="353"/>
-      <c r="L30" s="354"/>
-      <c r="M30" s="352" t="s">
-        <v>513</v>
-      </c>
-      <c r="N30" s="354"/>
-      <c r="O30" s="352" t="s">
+      <c r="L30" s="353"/>
+      <c r="M30" s="354"/>
+      <c r="N30" s="352" t="s">
+        <v>513</v>
+      </c>
+      <c r="O30" s="354"/>
+      <c r="P30" s="352" t="s">
         <v>279</v>
       </c>
-      <c r="P30" s="353" t="s">
-        <v>513</v>
-      </c>
       <c r="Q30" s="353" t="s">
+        <v>513</v>
+      </c>
+      <c r="R30" s="353" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="355" t="s">
         <v>198</v>
       </c>
@@ -10311,22 +10360,23 @@
       <c r="K31" s="356">
         <v>301765</v>
       </c>
-      <c r="L31" s="357"/>
-      <c r="M31" s="355" t="s">
+      <c r="L31" s="356"/>
+      <c r="M31" s="357"/>
+      <c r="N31" s="355" t="s">
         <v>283</v>
       </c>
-      <c r="N31" s="357"/>
-      <c r="O31" s="355" t="s">
-        <v>513</v>
-      </c>
-      <c r="P31" s="356" t="s">
+      <c r="O31" s="357"/>
+      <c r="P31" s="355" t="s">
         <v>513</v>
       </c>
       <c r="Q31" s="356" t="s">
+        <v>513</v>
+      </c>
+      <c r="R31" s="356" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="358" t="s">
         <v>198</v>
       </c>
@@ -10356,22 +10406,23 @@
       </c>
       <c r="J32" s="359"/>
       <c r="K32" s="359"/>
-      <c r="L32" s="360"/>
-      <c r="M32" s="358" t="s">
-        <v>513</v>
-      </c>
-      <c r="N32" s="360"/>
-      <c r="O32" s="358" t="s">
+      <c r="L32" s="359"/>
+      <c r="M32" s="360"/>
+      <c r="N32" s="358" t="s">
+        <v>513</v>
+      </c>
+      <c r="O32" s="360"/>
+      <c r="P32" s="358" t="s">
         <v>286</v>
       </c>
-      <c r="P32" s="359" t="s">
+      <c r="Q32" s="359" t="s">
         <v>536</v>
       </c>
-      <c r="Q32" s="359" t="s">
+      <c r="R32" s="359" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="361" t="s">
         <v>513</v>
       </c>
@@ -10403,22 +10454,23 @@
         <v>412</v>
       </c>
       <c r="K33" s="362"/>
-      <c r="L33" s="363"/>
-      <c r="M33" s="361" t="s">
-        <v>513</v>
-      </c>
-      <c r="N33" s="363"/>
-      <c r="O33" s="361" t="s">
+      <c r="L33" s="362"/>
+      <c r="M33" s="363"/>
+      <c r="N33" s="361" t="s">
+        <v>513</v>
+      </c>
+      <c r="O33" s="363"/>
+      <c r="P33" s="361" t="s">
         <v>611</v>
       </c>
-      <c r="P33" s="362" t="s">
-        <v>513</v>
-      </c>
       <c r="Q33" s="362" t="s">
+        <v>513</v>
+      </c>
+      <c r="R33" s="362" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="364" t="s">
         <v>513</v>
       </c>
@@ -10448,22 +10500,23 @@
       </c>
       <c r="J34" s="365"/>
       <c r="K34" s="365"/>
-      <c r="L34" s="366"/>
-      <c r="M34" s="364" t="s">
-        <v>513</v>
-      </c>
-      <c r="N34" s="366"/>
-      <c r="O34" s="364" t="s">
+      <c r="L34" s="365"/>
+      <c r="M34" s="366"/>
+      <c r="N34" s="364" t="s">
+        <v>513</v>
+      </c>
+      <c r="O34" s="366"/>
+      <c r="P34" s="364" t="s">
         <v>273</v>
       </c>
-      <c r="P34" s="365" t="s">
-        <v>513</v>
-      </c>
       <c r="Q34" s="365" t="s">
+        <v>513</v>
+      </c>
+      <c r="R34" s="365" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="367" t="s">
         <v>513</v>
       </c>
@@ -10495,22 +10548,23 @@
         <v>322</v>
       </c>
       <c r="K35" s="368"/>
-      <c r="L35" s="369"/>
-      <c r="M35" s="367" t="s">
-        <v>513</v>
-      </c>
-      <c r="N35" s="369"/>
-      <c r="O35" s="367" t="s">
+      <c r="L35" s="368"/>
+      <c r="M35" s="369"/>
+      <c r="N35" s="367" t="s">
+        <v>513</v>
+      </c>
+      <c r="O35" s="369"/>
+      <c r="P35" s="367" t="s">
         <v>287</v>
       </c>
-      <c r="P35" s="368" t="s">
-        <v>513</v>
-      </c>
       <c r="Q35" s="368" t="s">
+        <v>513</v>
+      </c>
+      <c r="R35" s="368" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="370" t="s">
         <v>153</v>
       </c>
@@ -10544,22 +10598,23 @@
       <c r="K36" s="371">
         <v>302780</v>
       </c>
-      <c r="L36" s="372"/>
-      <c r="M36" s="370" t="s">
-        <v>513</v>
-      </c>
-      <c r="N36" s="372"/>
-      <c r="O36" s="370" t="s">
+      <c r="L36" s="371"/>
+      <c r="M36" s="372"/>
+      <c r="N36" s="370" t="s">
+        <v>513</v>
+      </c>
+      <c r="O36" s="372"/>
+      <c r="P36" s="370" t="s">
         <v>334</v>
       </c>
-      <c r="P36" s="371" t="s">
+      <c r="Q36" s="371" t="s">
         <v>536</v>
       </c>
-      <c r="Q36" s="371" t="s">
+      <c r="R36" s="371" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="373" t="s">
         <v>174</v>
       </c>
@@ -10593,22 +10648,23 @@
       <c r="K37" s="374">
         <v>302796</v>
       </c>
-      <c r="L37" s="375"/>
-      <c r="M37" s="373" t="s">
-        <v>513</v>
-      </c>
-      <c r="N37" s="375"/>
-      <c r="O37" s="373" t="s">
+      <c r="L37" s="374"/>
+      <c r="M37" s="375"/>
+      <c r="N37" s="373" t="s">
+        <v>513</v>
+      </c>
+      <c r="O37" s="375"/>
+      <c r="P37" s="373" t="s">
         <v>336</v>
       </c>
-      <c r="P37" s="374" t="s">
+      <c r="Q37" s="374" t="s">
         <v>536</v>
       </c>
-      <c r="Q37" s="374" t="s">
+      <c r="R37" s="374" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="376" t="s">
         <v>590</v>
       </c>
@@ -10642,22 +10698,23 @@
       <c r="K38" s="377">
         <v>302833</v>
       </c>
-      <c r="L38" s="378"/>
-      <c r="M38" s="376" t="s">
+      <c r="L38" s="377"/>
+      <c r="M38" s="378"/>
+      <c r="N38" s="376" t="s">
         <v>152</v>
       </c>
-      <c r="N38" s="378"/>
-      <c r="O38" s="376" t="s">
-        <v>513</v>
-      </c>
-      <c r="P38" s="377" t="s">
+      <c r="O38" s="378"/>
+      <c r="P38" s="376" t="s">
         <v>513</v>
       </c>
       <c r="Q38" s="377" t="s">
+        <v>513</v>
+      </c>
+      <c r="R38" s="377" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="379" t="s">
         <v>513</v>
       </c>
@@ -10691,22 +10748,23 @@
       <c r="K39" s="380">
         <v>302838</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="379" t="s">
+      <c r="L39" s="380"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="379" t="s">
         <v>152</v>
       </c>
-      <c r="N39" s="381"/>
-      <c r="O39" s="379" t="s">
+      <c r="O39" s="381"/>
+      <c r="P39" s="379" t="s">
         <v>337</v>
       </c>
-      <c r="P39" s="380" t="s">
-        <v>513</v>
-      </c>
       <c r="Q39" s="380" t="s">
+        <v>513</v>
+      </c>
+      <c r="R39" s="380" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="382" t="s">
         <v>513</v>
       </c>
@@ -10740,22 +10798,23 @@
       <c r="K40" s="383">
         <v>302845</v>
       </c>
-      <c r="L40" s="384"/>
-      <c r="M40" s="382" t="s">
+      <c r="L40" s="383"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="382" t="s">
         <v>152</v>
       </c>
-      <c r="N40" s="384"/>
-      <c r="O40" s="382" t="s">
+      <c r="O40" s="384"/>
+      <c r="P40" s="382" t="s">
         <v>334</v>
       </c>
-      <c r="P40" s="383" t="s">
-        <v>513</v>
-      </c>
       <c r="Q40" s="383" t="s">
+        <v>513</v>
+      </c>
+      <c r="R40" s="383" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="385" t="s">
         <v>198</v>
       </c>
@@ -10789,22 +10848,23 @@
       <c r="K41" s="386">
         <v>307395</v>
       </c>
-      <c r="L41" s="387"/>
-      <c r="M41" s="385" t="s">
+      <c r="L41" s="386"/>
+      <c r="M41" s="387"/>
+      <c r="N41" s="385" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="387"/>
-      <c r="O41" s="385" t="s">
-        <v>513</v>
-      </c>
-      <c r="P41" s="386" t="s">
+      <c r="O41" s="387"/>
+      <c r="P41" s="385" t="s">
         <v>513</v>
       </c>
       <c r="Q41" s="386" t="s">
+        <v>513</v>
+      </c>
+      <c r="R41" s="386" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="388" t="s">
         <v>198</v>
       </c>
@@ -10838,22 +10898,23 @@
       <c r="K42" s="389">
         <v>307396</v>
       </c>
-      <c r="L42" s="390"/>
-      <c r="M42" s="388" t="s">
+      <c r="L42" s="389"/>
+      <c r="M42" s="390"/>
+      <c r="N42" s="388" t="s">
         <v>152</v>
       </c>
-      <c r="N42" s="390"/>
-      <c r="O42" s="388" t="s">
-        <v>513</v>
-      </c>
-      <c r="P42" s="389" t="s">
+      <c r="O42" s="390"/>
+      <c r="P42" s="388" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q42" s="389" t="s">
         <v>536</v>
       </c>
-      <c r="Q42" s="389" t="s">
+      <c r="R42" s="389" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="391" t="s">
         <v>153</v>
       </c>
@@ -10887,22 +10948,23 @@
       <c r="K43" s="392">
         <v>307398</v>
       </c>
-      <c r="L43" s="393"/>
-      <c r="M43" s="391" t="s">
+      <c r="L43" s="392"/>
+      <c r="M43" s="393"/>
+      <c r="N43" s="391" t="s">
         <v>152</v>
       </c>
-      <c r="N43" s="393"/>
-      <c r="O43" s="391" t="s">
-        <v>513</v>
-      </c>
-      <c r="P43" s="392" t="s">
+      <c r="O43" s="393"/>
+      <c r="P43" s="391" t="s">
         <v>513</v>
       </c>
       <c r="Q43" s="392" t="s">
+        <v>513</v>
+      </c>
+      <c r="R43" s="392" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="394" t="s">
         <v>153</v>
       </c>
@@ -10936,22 +10998,23 @@
       <c r="K44" s="395">
         <v>307400</v>
       </c>
-      <c r="L44" s="396"/>
-      <c r="M44" s="394" t="s">
+      <c r="L44" s="395"/>
+      <c r="M44" s="396"/>
+      <c r="N44" s="394" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="396"/>
-      <c r="O44" s="394" t="s">
-        <v>513</v>
-      </c>
-      <c r="P44" s="395" t="s">
+      <c r="O44" s="396"/>
+      <c r="P44" s="394" t="s">
         <v>513</v>
       </c>
       <c r="Q44" s="395" t="s">
+        <v>513</v>
+      </c>
+      <c r="R44" s="395" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="397" t="s">
         <v>513</v>
       </c>
@@ -10985,22 +11048,23 @@
       <c r="K45" s="398">
         <v>307402</v>
       </c>
-      <c r="L45" s="399"/>
-      <c r="M45" s="397" t="s">
+      <c r="L45" s="398"/>
+      <c r="M45" s="399"/>
+      <c r="N45" s="397" t="s">
         <v>152</v>
       </c>
-      <c r="N45" s="399"/>
-      <c r="O45" s="397" t="s">
-        <v>513</v>
-      </c>
-      <c r="P45" s="398" t="s">
+      <c r="O45" s="399"/>
+      <c r="P45" s="397" t="s">
         <v>513</v>
       </c>
       <c r="Q45" s="398" t="s">
+        <v>513</v>
+      </c>
+      <c r="R45" s="398" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="400" t="s">
         <v>513</v>
       </c>
@@ -11034,22 +11098,23 @@
       <c r="K46" s="401">
         <v>307405</v>
       </c>
-      <c r="L46" s="402"/>
-      <c r="M46" s="400" t="s">
+      <c r="L46" s="401"/>
+      <c r="M46" s="402"/>
+      <c r="N46" s="400" t="s">
         <v>152</v>
       </c>
-      <c r="N46" s="402"/>
-      <c r="O46" s="400" t="s">
-        <v>513</v>
-      </c>
-      <c r="P46" s="401" t="s">
+      <c r="O46" s="402"/>
+      <c r="P46" s="400" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q46" s="401" t="s">
         <v>536</v>
       </c>
-      <c r="Q46" s="401" t="s">
+      <c r="R46" s="401" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="403" t="s">
         <v>513</v>
       </c>
@@ -11083,22 +11148,23 @@
       <c r="K47" s="404">
         <v>307407</v>
       </c>
-      <c r="L47" s="405"/>
-      <c r="M47" s="403" t="s">
+      <c r="L47" s="404"/>
+      <c r="M47" s="405"/>
+      <c r="N47" s="403" t="s">
         <v>152</v>
       </c>
-      <c r="N47" s="405"/>
-      <c r="O47" s="403" t="s">
-        <v>513</v>
-      </c>
-      <c r="P47" s="404" t="s">
+      <c r="O47" s="405"/>
+      <c r="P47" s="403" t="s">
         <v>513</v>
       </c>
       <c r="Q47" s="404" t="s">
+        <v>513</v>
+      </c>
+      <c r="R47" s="404" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="406" t="s">
         <v>174</v>
       </c>
@@ -11132,22 +11198,23 @@
       <c r="K48" s="407">
         <v>307408</v>
       </c>
-      <c r="L48" s="408"/>
-      <c r="M48" s="406" t="s">
+      <c r="L48" s="407"/>
+      <c r="M48" s="408"/>
+      <c r="N48" s="406" t="s">
         <v>152</v>
       </c>
-      <c r="N48" s="408"/>
-      <c r="O48" s="406" t="s">
-        <v>513</v>
-      </c>
-      <c r="P48" s="407" t="s">
+      <c r="O48" s="408"/>
+      <c r="P48" s="406" t="s">
         <v>513</v>
       </c>
       <c r="Q48" s="407" t="s">
+        <v>513</v>
+      </c>
+      <c r="R48" s="407" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="409" t="s">
         <v>386</v>
       </c>
@@ -11181,22 +11248,23 @@
       <c r="K49" s="410">
         <v>307527</v>
       </c>
-      <c r="L49" s="411"/>
-      <c r="M49" s="409" t="s">
+      <c r="L49" s="410"/>
+      <c r="M49" s="411"/>
+      <c r="N49" s="409" t="s">
         <v>152</v>
       </c>
-      <c r="N49" s="411"/>
-      <c r="O49" s="409" t="s">
-        <v>513</v>
-      </c>
-      <c r="P49" s="410" t="s">
+      <c r="O49" s="411"/>
+      <c r="P49" s="409" t="s">
         <v>513</v>
       </c>
       <c r="Q49" s="410" t="s">
+        <v>513</v>
+      </c>
+      <c r="R49" s="410" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="412" t="s">
         <v>198</v>
       </c>
@@ -11230,22 +11298,23 @@
       <c r="K50" s="413">
         <v>307535</v>
       </c>
-      <c r="L50" s="414"/>
-      <c r="M50" s="412" t="s">
+      <c r="L50" s="413"/>
+      <c r="M50" s="414"/>
+      <c r="N50" s="412" t="s">
         <v>152</v>
       </c>
-      <c r="N50" s="414"/>
-      <c r="O50" s="412" t="s">
-        <v>513</v>
-      </c>
-      <c r="P50" s="413" t="s">
+      <c r="O50" s="414"/>
+      <c r="P50" s="412" t="s">
         <v>513</v>
       </c>
       <c r="Q50" s="413" t="s">
+        <v>513</v>
+      </c>
+      <c r="R50" s="413" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="415" t="s">
         <v>148</v>
       </c>
@@ -11277,22 +11346,23 @@
         <v>340</v>
       </c>
       <c r="K51" s="416"/>
-      <c r="L51" s="417"/>
-      <c r="M51" s="415" t="s">
-        <v>513</v>
-      </c>
-      <c r="N51" s="417"/>
-      <c r="O51" s="415" t="s">
+      <c r="L51" s="416"/>
+      <c r="M51" s="417"/>
+      <c r="N51" s="415" t="s">
+        <v>513</v>
+      </c>
+      <c r="O51" s="417"/>
+      <c r="P51" s="415" t="s">
         <v>374</v>
       </c>
-      <c r="P51" s="416" t="s">
+      <c r="Q51" s="416" t="s">
         <v>536</v>
       </c>
-      <c r="Q51" s="416" t="s">
+      <c r="R51" s="416" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="418" t="s">
         <v>153</v>
       </c>
@@ -11326,22 +11396,23 @@
       <c r="K52" s="419">
         <v>307542</v>
       </c>
-      <c r="L52" s="420"/>
-      <c r="M52" s="418" t="s">
+      <c r="L52" s="419"/>
+      <c r="M52" s="420"/>
+      <c r="N52" s="418" t="s">
         <v>152</v>
       </c>
-      <c r="N52" s="420"/>
-      <c r="O52" s="418" t="s">
-        <v>513</v>
-      </c>
-      <c r="P52" s="419" t="s">
+      <c r="O52" s="420"/>
+      <c r="P52" s="418" t="s">
         <v>513</v>
       </c>
       <c r="Q52" s="419" t="s">
+        <v>513</v>
+      </c>
+      <c r="R52" s="419" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="421" t="s">
         <v>513</v>
       </c>
@@ -11373,22 +11444,23 @@
         <v>322</v>
       </c>
       <c r="K53" s="422"/>
-      <c r="L53" s="423"/>
-      <c r="M53" s="421" t="s">
-        <v>513</v>
-      </c>
-      <c r="N53" s="423"/>
-      <c r="O53" s="421" t="s">
+      <c r="L53" s="422"/>
+      <c r="M53" s="423"/>
+      <c r="N53" s="421" t="s">
+        <v>513</v>
+      </c>
+      <c r="O53" s="423"/>
+      <c r="P53" s="421" t="s">
         <v>399</v>
       </c>
-      <c r="P53" s="422" t="s">
-        <v>513</v>
-      </c>
       <c r="Q53" s="422" t="s">
+        <v>513</v>
+      </c>
+      <c r="R53" s="422" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="424" t="s">
         <v>513</v>
       </c>
@@ -11420,22 +11492,23 @@
         <v>340</v>
       </c>
       <c r="K54" s="425"/>
-      <c r="L54" s="426"/>
-      <c r="M54" s="424" t="s">
-        <v>513</v>
-      </c>
-      <c r="N54" s="426"/>
-      <c r="O54" s="424" t="s">
+      <c r="L54" s="425"/>
+      <c r="M54" s="426"/>
+      <c r="N54" s="424" t="s">
+        <v>513</v>
+      </c>
+      <c r="O54" s="426"/>
+      <c r="P54" s="424" t="s">
         <v>401</v>
       </c>
-      <c r="P54" s="425" t="s">
-        <v>513</v>
-      </c>
       <c r="Q54" s="425" t="s">
+        <v>513</v>
+      </c>
+      <c r="R54" s="425" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="427" t="s">
         <v>198</v>
       </c>
@@ -11467,22 +11540,23 @@
         <v>340</v>
       </c>
       <c r="K55" s="428"/>
-      <c r="L55" s="429"/>
-      <c r="M55" s="427" t="s">
-        <v>513</v>
-      </c>
-      <c r="N55" s="429"/>
-      <c r="O55" s="427" t="s">
-        <v>513</v>
-      </c>
-      <c r="P55" s="428" t="s">
+      <c r="L55" s="428"/>
+      <c r="M55" s="429"/>
+      <c r="N55" s="427" t="s">
+        <v>513</v>
+      </c>
+      <c r="O55" s="429"/>
+      <c r="P55" s="427" t="s">
         <v>513</v>
       </c>
       <c r="Q55" s="428" t="s">
+        <v>513</v>
+      </c>
+      <c r="R55" s="428" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="430" t="s">
         <v>189</v>
       </c>
@@ -11516,22 +11590,23 @@
       <c r="K56" s="431">
         <v>309193</v>
       </c>
-      <c r="L56" s="432"/>
-      <c r="M56" s="430" t="s">
+      <c r="L56" s="431"/>
+      <c r="M56" s="432"/>
+      <c r="N56" s="430" t="s">
         <v>152</v>
       </c>
-      <c r="N56" s="432"/>
-      <c r="O56" s="430" t="s">
-        <v>513</v>
-      </c>
-      <c r="P56" s="431" t="s">
+      <c r="O56" s="432"/>
+      <c r="P56" s="430" t="s">
         <v>513</v>
       </c>
       <c r="Q56" s="431" t="s">
+        <v>513</v>
+      </c>
+      <c r="R56" s="431" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="433" t="s">
         <v>260</v>
       </c>
@@ -11563,22 +11638,23 @@
         <v>412</v>
       </c>
       <c r="K57" s="434"/>
-      <c r="L57" s="435"/>
-      <c r="M57" s="433" t="s">
-        <v>513</v>
-      </c>
-      <c r="N57" s="435"/>
-      <c r="O57" s="433" t="s">
-        <v>513</v>
-      </c>
-      <c r="P57" s="434" t="s">
+      <c r="L57" s="434"/>
+      <c r="M57" s="435"/>
+      <c r="N57" s="433" t="s">
+        <v>513</v>
+      </c>
+      <c r="O57" s="435"/>
+      <c r="P57" s="433" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q57" s="434" t="s">
         <v>536</v>
       </c>
-      <c r="Q57" s="434" t="s">
+      <c r="R57" s="434" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="436" t="s">
         <v>174</v>
       </c>
@@ -11610,22 +11686,23 @@
         <v>412</v>
       </c>
       <c r="K58" s="437"/>
-      <c r="L58" s="438"/>
-      <c r="M58" s="436" t="s">
-        <v>513</v>
-      </c>
-      <c r="N58" s="438"/>
-      <c r="O58" s="436" t="s">
-        <v>513</v>
-      </c>
-      <c r="P58" s="437" t="s">
+      <c r="L58" s="437"/>
+      <c r="M58" s="438"/>
+      <c r="N58" s="436" t="s">
+        <v>513</v>
+      </c>
+      <c r="O58" s="438"/>
+      <c r="P58" s="436" t="s">
         <v>513</v>
       </c>
       <c r="Q58" s="437" t="s">
+        <v>513</v>
+      </c>
+      <c r="R58" s="437" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="439" t="s">
         <v>260</v>
       </c>
@@ -11657,22 +11734,23 @@
         <v>412</v>
       </c>
       <c r="K59" s="440"/>
-      <c r="L59" s="441"/>
-      <c r="M59" s="439" t="s">
-        <v>513</v>
-      </c>
-      <c r="N59" s="441"/>
-      <c r="O59" s="439" t="s">
-        <v>513</v>
-      </c>
-      <c r="P59" s="440" t="s">
+      <c r="L59" s="440"/>
+      <c r="M59" s="441"/>
+      <c r="N59" s="439" t="s">
+        <v>513</v>
+      </c>
+      <c r="O59" s="441"/>
+      <c r="P59" s="439" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q59" s="440" t="s">
         <v>536</v>
       </c>
-      <c r="Q59" s="440" t="s">
+      <c r="R59" s="440" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="442" t="s">
         <v>386</v>
       </c>
@@ -11704,22 +11782,23 @@
         <v>318</v>
       </c>
       <c r="K60" s="443"/>
-      <c r="L60" s="444"/>
-      <c r="M60" s="442" t="s">
-        <v>513</v>
-      </c>
-      <c r="N60" s="444"/>
-      <c r="O60" s="442" t="s">
-        <v>513</v>
-      </c>
-      <c r="P60" s="443" t="s">
+      <c r="L60" s="443"/>
+      <c r="M60" s="444"/>
+      <c r="N60" s="442" t="s">
+        <v>513</v>
+      </c>
+      <c r="O60" s="444"/>
+      <c r="P60" s="442" t="s">
         <v>513</v>
       </c>
       <c r="Q60" s="443" t="s">
+        <v>513</v>
+      </c>
+      <c r="R60" s="443" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="445" t="s">
         <v>198</v>
       </c>
@@ -11751,22 +11830,23 @@
         <v>318</v>
       </c>
       <c r="K61" s="446"/>
-      <c r="L61" s="447"/>
-      <c r="M61" s="445" t="s">
-        <v>513</v>
-      </c>
-      <c r="N61" s="447"/>
-      <c r="O61" s="445" t="s">
-        <v>513</v>
-      </c>
-      <c r="P61" s="446" t="s">
+      <c r="L61" s="446"/>
+      <c r="M61" s="447"/>
+      <c r="N61" s="445" t="s">
+        <v>513</v>
+      </c>
+      <c r="O61" s="447"/>
+      <c r="P61" s="445" t="s">
         <v>513</v>
       </c>
       <c r="Q61" s="446" t="s">
+        <v>513</v>
+      </c>
+      <c r="R61" s="446" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="448" t="s">
         <v>153</v>
       </c>
@@ -11800,22 +11880,23 @@
       <c r="K62" s="449">
         <v>310773</v>
       </c>
-      <c r="L62" s="450"/>
-      <c r="M62" s="448" t="s">
+      <c r="L62" s="449"/>
+      <c r="M62" s="450"/>
+      <c r="N62" s="448" t="s">
         <v>152</v>
       </c>
-      <c r="N62" s="450"/>
-      <c r="O62" s="448" t="s">
-        <v>513</v>
-      </c>
-      <c r="P62" s="449" t="s">
+      <c r="O62" s="450"/>
+      <c r="P62" s="448" t="s">
         <v>513</v>
       </c>
       <c r="Q62" s="449" t="s">
+        <v>513</v>
+      </c>
+      <c r="R62" s="449" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="451" t="s">
         <v>153</v>
       </c>
@@ -11849,22 +11930,23 @@
       <c r="K63" s="452">
         <v>311661</v>
       </c>
-      <c r="L63" s="453"/>
-      <c r="M63" s="451" t="s">
+      <c r="L63" s="452"/>
+      <c r="M63" s="453"/>
+      <c r="N63" s="451" t="s">
         <v>152</v>
       </c>
-      <c r="N63" s="453"/>
-      <c r="O63" s="451" t="s">
-        <v>513</v>
-      </c>
-      <c r="P63" s="452" t="s">
+      <c r="O63" s="453"/>
+      <c r="P63" s="451" t="s">
         <v>513</v>
       </c>
       <c r="Q63" s="452" t="s">
+        <v>513</v>
+      </c>
+      <c r="R63" s="452" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="454" t="s">
         <v>513</v>
       </c>
@@ -11896,22 +11978,23 @@
         <v>335</v>
       </c>
       <c r="K64" s="455"/>
-      <c r="L64" s="456"/>
-      <c r="M64" s="454" t="s">
-        <v>513</v>
-      </c>
-      <c r="N64" s="456"/>
-      <c r="O64" s="454" t="s">
+      <c r="L64" s="455"/>
+      <c r="M64" s="456"/>
+      <c r="N64" s="454" t="s">
+        <v>513</v>
+      </c>
+      <c r="O64" s="456"/>
+      <c r="P64" s="454" t="s">
         <v>334</v>
       </c>
-      <c r="P64" s="455" t="s">
-        <v>513</v>
-      </c>
       <c r="Q64" s="455" t="s">
+        <v>513</v>
+      </c>
+      <c r="R64" s="455" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="457" t="s">
         <v>153</v>
       </c>
@@ -11945,22 +12028,23 @@
       <c r="K65" s="458">
         <v>310726</v>
       </c>
-      <c r="L65" s="459"/>
-      <c r="M65" s="457" t="s">
-        <v>513</v>
-      </c>
-      <c r="N65" s="459"/>
-      <c r="O65" s="457" t="s">
+      <c r="L65" s="458"/>
+      <c r="M65" s="459"/>
+      <c r="N65" s="457" t="s">
+        <v>513</v>
+      </c>
+      <c r="O65" s="459"/>
+      <c r="P65" s="457" t="s">
         <v>549</v>
       </c>
-      <c r="P65" s="458" t="s">
-        <v>513</v>
-      </c>
       <c r="Q65" s="458" t="s">
+        <v>513</v>
+      </c>
+      <c r="R65" s="458" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="460" t="s">
         <v>386</v>
       </c>
@@ -11992,22 +12076,23 @@
         <v>412</v>
       </c>
       <c r="K66" s="461"/>
-      <c r="L66" s="462"/>
-      <c r="M66" s="460" t="s">
-        <v>513</v>
-      </c>
-      <c r="N66" s="462"/>
-      <c r="O66" s="460" t="s">
+      <c r="L66" s="461"/>
+      <c r="M66" s="462"/>
+      <c r="N66" s="460" t="s">
+        <v>513</v>
+      </c>
+      <c r="O66" s="462"/>
+      <c r="P66" s="460" t="s">
         <v>334</v>
       </c>
-      <c r="P66" s="461" t="s">
-        <v>513</v>
-      </c>
       <c r="Q66" s="461" t="s">
+        <v>513</v>
+      </c>
+      <c r="R66" s="461" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="463" t="s">
         <v>153</v>
       </c>
@@ -12039,22 +12124,23 @@
         <v>412</v>
       </c>
       <c r="K67" s="464"/>
-      <c r="L67" s="465"/>
-      <c r="M67" s="463" t="s">
-        <v>513</v>
-      </c>
-      <c r="N67" s="465"/>
-      <c r="O67" s="463" t="s">
+      <c r="L67" s="464"/>
+      <c r="M67" s="465"/>
+      <c r="N67" s="463" t="s">
+        <v>513</v>
+      </c>
+      <c r="O67" s="465"/>
+      <c r="P67" s="463" t="s">
         <v>334</v>
       </c>
-      <c r="P67" s="464" t="s">
-        <v>513</v>
-      </c>
       <c r="Q67" s="464" t="s">
+        <v>513</v>
+      </c>
+      <c r="R67" s="464" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="466" t="s">
         <v>198</v>
       </c>
@@ -12086,22 +12172,23 @@
         <v>318</v>
       </c>
       <c r="K68" s="467"/>
-      <c r="L68" s="468"/>
-      <c r="M68" s="466" t="s">
-        <v>513</v>
-      </c>
-      <c r="N68" s="468"/>
-      <c r="O68" s="466" t="s">
+      <c r="L68" s="467"/>
+      <c r="M68" s="468"/>
+      <c r="N68" s="466" t="s">
+        <v>513</v>
+      </c>
+      <c r="O68" s="468"/>
+      <c r="P68" s="466" t="s">
         <v>334</v>
       </c>
-      <c r="P68" s="467" t="s">
-        <v>513</v>
-      </c>
       <c r="Q68" s="467" t="s">
+        <v>513</v>
+      </c>
+      <c r="R68" s="467" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="469" t="s">
         <v>174</v>
       </c>
@@ -12135,22 +12222,23 @@
       <c r="K69" s="470">
         <v>292625</v>
       </c>
-      <c r="L69" s="471"/>
-      <c r="M69" s="469" t="s">
-        <v>513</v>
-      </c>
-      <c r="N69" s="471"/>
-      <c r="O69" s="469" t="s">
+      <c r="L69" s="470"/>
+      <c r="M69" s="471"/>
+      <c r="N69" s="469" t="s">
+        <v>513</v>
+      </c>
+      <c r="O69" s="471"/>
+      <c r="P69" s="469" t="s">
         <v>551</v>
       </c>
-      <c r="P69" s="470" t="s">
+      <c r="Q69" s="470" t="s">
         <v>536</v>
       </c>
-      <c r="Q69" s="470" t="s">
+      <c r="R69" s="470" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="472" t="s">
         <v>198</v>
       </c>
@@ -12182,22 +12270,23 @@
         <v>412</v>
       </c>
       <c r="K70" s="473"/>
-      <c r="L70" s="474"/>
-      <c r="M70" s="472" t="s">
-        <v>513</v>
-      </c>
-      <c r="N70" s="474"/>
-      <c r="O70" s="472" t="s">
+      <c r="L70" s="473"/>
+      <c r="M70" s="474"/>
+      <c r="N70" s="472" t="s">
+        <v>513</v>
+      </c>
+      <c r="O70" s="474"/>
+      <c r="P70" s="472" t="s">
         <v>550</v>
       </c>
-      <c r="P70" s="473" t="s">
-        <v>513</v>
-      </c>
       <c r="Q70" s="473" t="s">
+        <v>513</v>
+      </c>
+      <c r="R70" s="473" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="475" t="s">
         <v>198</v>
       </c>
@@ -12229,22 +12318,23 @@
         <v>318</v>
       </c>
       <c r="K71" s="476"/>
-      <c r="L71" s="477"/>
-      <c r="M71" s="475" t="s">
-        <v>513</v>
-      </c>
-      <c r="N71" s="477"/>
-      <c r="O71" s="475" t="s">
-        <v>513</v>
-      </c>
-      <c r="P71" s="476" t="s">
+      <c r="L71" s="476"/>
+      <c r="M71" s="477"/>
+      <c r="N71" s="475" t="s">
+        <v>513</v>
+      </c>
+      <c r="O71" s="477"/>
+      <c r="P71" s="475" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q71" s="476" t="s">
         <v>536</v>
       </c>
-      <c r="Q71" s="476" t="s">
+      <c r="R71" s="476" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="478" t="s">
         <v>513</v>
       </c>
@@ -12278,22 +12368,23 @@
       <c r="K72" s="479">
         <v>310905</v>
       </c>
-      <c r="L72" s="480"/>
-      <c r="M72" s="478" t="s">
-        <v>513</v>
-      </c>
-      <c r="N72" s="480"/>
-      <c r="O72" s="478" t="s">
-        <v>513</v>
-      </c>
-      <c r="P72" s="479" t="s">
+      <c r="L72" s="479"/>
+      <c r="M72" s="480"/>
+      <c r="N72" s="478" t="s">
+        <v>513</v>
+      </c>
+      <c r="O72" s="480"/>
+      <c r="P72" s="478" t="s">
         <v>513</v>
       </c>
       <c r="Q72" s="479" t="s">
+        <v>513</v>
+      </c>
+      <c r="R72" s="479" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="481" t="s">
         <v>198</v>
       </c>
@@ -12325,22 +12416,23 @@
         <v>318</v>
       </c>
       <c r="K73" s="482"/>
-      <c r="L73" s="483"/>
-      <c r="M73" s="481" t="s">
-        <v>513</v>
-      </c>
-      <c r="N73" s="483"/>
-      <c r="O73" s="481" t="s">
+      <c r="L73" s="482"/>
+      <c r="M73" s="483"/>
+      <c r="N73" s="481" t="s">
+        <v>513</v>
+      </c>
+      <c r="O73" s="483"/>
+      <c r="P73" s="481" t="s">
         <v>570</v>
       </c>
-      <c r="P73" s="482" t="s">
-        <v>513</v>
-      </c>
       <c r="Q73" s="482" t="s">
+        <v>513</v>
+      </c>
+      <c r="R73" s="482" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="484" t="s">
         <v>513</v>
       </c>
@@ -12374,22 +12466,23 @@
       <c r="K74" s="485">
         <v>311370</v>
       </c>
-      <c r="L74" s="486"/>
-      <c r="M74" s="484" t="s">
-        <v>513</v>
-      </c>
-      <c r="N74" s="486"/>
-      <c r="O74" s="484" t="s">
-        <v>513</v>
-      </c>
-      <c r="P74" s="485" t="s">
+      <c r="L74" s="485"/>
+      <c r="M74" s="486"/>
+      <c r="N74" s="484" t="s">
+        <v>513</v>
+      </c>
+      <c r="O74" s="486"/>
+      <c r="P74" s="484" t="s">
         <v>513</v>
       </c>
       <c r="Q74" s="485" t="s">
+        <v>513</v>
+      </c>
+      <c r="R74" s="485" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="487" t="s">
         <v>513</v>
       </c>
@@ -12421,22 +12514,23 @@
         <v>412</v>
       </c>
       <c r="K75" s="488"/>
-      <c r="L75" s="489"/>
-      <c r="M75" s="487" t="s">
-        <v>513</v>
-      </c>
-      <c r="N75" s="489"/>
-      <c r="O75" s="487" t="s">
+      <c r="L75" s="488"/>
+      <c r="M75" s="489"/>
+      <c r="N75" s="487" t="s">
+        <v>513</v>
+      </c>
+      <c r="O75" s="489"/>
+      <c r="P75" s="487" t="s">
         <v>587</v>
       </c>
-      <c r="P75" s="488" t="s">
+      <c r="Q75" s="488" t="s">
         <v>536</v>
       </c>
-      <c r="Q75" s="488" t="s">
+      <c r="R75" s="488" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="490" t="s">
         <v>513</v>
       </c>
@@ -12468,22 +12562,23 @@
         <v>412</v>
       </c>
       <c r="K76" s="491"/>
-      <c r="L76" s="492"/>
-      <c r="M76" s="490" t="s">
-        <v>513</v>
-      </c>
-      <c r="N76" s="492"/>
-      <c r="O76" s="490" t="s">
-        <v>513</v>
-      </c>
-      <c r="P76" s="491" t="s">
+      <c r="L76" s="491"/>
+      <c r="M76" s="492"/>
+      <c r="N76" s="490" t="s">
+        <v>513</v>
+      </c>
+      <c r="O76" s="492"/>
+      <c r="P76" s="490" t="s">
         <v>513</v>
       </c>
       <c r="Q76" s="491" t="s">
+        <v>513</v>
+      </c>
+      <c r="R76" s="491" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="493" t="s">
         <v>513</v>
       </c>
@@ -12515,22 +12610,23 @@
         <v>340</v>
       </c>
       <c r="K77" s="494"/>
-      <c r="L77" s="495"/>
-      <c r="M77" s="493" t="s">
-        <v>513</v>
-      </c>
-      <c r="N77" s="495"/>
-      <c r="O77" s="493" t="s">
+      <c r="L77" s="494"/>
+      <c r="M77" s="495"/>
+      <c r="N77" s="493" t="s">
+        <v>513</v>
+      </c>
+      <c r="O77" s="495"/>
+      <c r="P77" s="493" t="s">
         <v>596</v>
       </c>
-      <c r="P77" s="494" t="s">
-        <v>513</v>
-      </c>
       <c r="Q77" s="494" t="s">
+        <v>513</v>
+      </c>
+      <c r="R77" s="494" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="496" t="s">
         <v>198</v>
       </c>
@@ -12562,24 +12658,25 @@
         <v>340</v>
       </c>
       <c r="K78" s="497"/>
-      <c r="L78" s="498">
+      <c r="L78" s="497"/>
+      <c r="M78" s="498">
         <v>43164</v>
       </c>
-      <c r="M78" s="496" t="s">
-        <v>513</v>
-      </c>
-      <c r="N78" s="498"/>
-      <c r="O78" s="496" t="s">
+      <c r="N78" s="496" t="s">
+        <v>513</v>
+      </c>
+      <c r="O78" s="498"/>
+      <c r="P78" s="496" t="s">
         <v>586</v>
       </c>
-      <c r="P78" s="497" t="s">
-        <v>513</v>
-      </c>
       <c r="Q78" s="497" t="s">
+        <v>513</v>
+      </c>
+      <c r="R78" s="497" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="499" t="s">
         <v>253</v>
       </c>
@@ -12609,18 +12706,19 @@
         <v>318</v>
       </c>
       <c r="K79" s="500"/>
-      <c r="L79" s="501">
+      <c r="L79" s="500"/>
+      <c r="M79" s="501">
         <v>43166</v>
       </c>
-      <c r="M79" s="499"/>
-      <c r="N79" s="501"/>
-      <c r="O79" s="499"/>
-      <c r="P79" s="500"/>
-      <c r="Q79" s="500" t="s">
+      <c r="N79" s="499"/>
+      <c r="O79" s="501"/>
+      <c r="P79" s="499"/>
+      <c r="Q79" s="500"/>
+      <c r="R79" s="500" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="502" t="s">
         <v>253</v>
       </c>
@@ -12650,20 +12748,21 @@
         <v>335</v>
       </c>
       <c r="K80" s="503"/>
-      <c r="L80" s="504">
+      <c r="L80" s="503"/>
+      <c r="M80" s="504">
         <v>43166</v>
       </c>
-      <c r="M80" s="502"/>
-      <c r="N80" s="504"/>
-      <c r="O80" s="502"/>
-      <c r="P80" s="503" t="s">
+      <c r="N80" s="502"/>
+      <c r="O80" s="504"/>
+      <c r="P80" s="502"/>
+      <c r="Q80" s="503" t="s">
         <v>536</v>
       </c>
-      <c r="Q80" s="503" t="s">
+      <c r="R80" s="503" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="505" t="s">
         <v>198</v>
       </c>
@@ -12693,14 +12792,15 @@
         <v>335</v>
       </c>
       <c r="K81" s="506"/>
-      <c r="L81" s="507">
+      <c r="L81" s="506"/>
+      <c r="M81" s="507">
         <v>43166</v>
       </c>
-      <c r="M81" s="505"/>
-      <c r="N81" s="507"/>
-      <c r="O81" s="505"/>
-      <c r="P81" s="506"/>
-      <c r="Q81" s="506" t="s">
+      <c r="N81" s="505"/>
+      <c r="O81" s="507"/>
+      <c r="P81" s="505"/>
+      <c r="Q81" s="506"/>
+      <c r="R81" s="506" t="s">
         <v>558</v>
       </c>
     </row>

--- a/SonarLysaFX/src/resources/Suivi_Quality_Gate.xlsx
+++ b/SonarLysaFX/src/resources/Suivi_Quality_Gate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="22530" windowHeight="11280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22530" windowHeight="11280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anomalies closes" sheetId="38" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="621">
   <si>
     <t>Edition</t>
   </si>
@@ -1883,6 +1883,12 @@
   </si>
   <si>
     <t>Matière</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Lot 305388</t>
   </si>
 </sst>
 </file>
@@ -7830,7 +7836,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,9 +8035,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8738,6 +8746,20 @@
       </c>
       <c r="D50" s="218" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="216" t="s">
+        <v>620</v>
+      </c>
+      <c r="B51" s="478" t="s">
+        <v>466</v>
+      </c>
+      <c r="C51" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" s="216" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -8781,8 +8803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
